--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Leap2-Ghsr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Leap2-Ghsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.404264666666666</v>
+        <v>0.4468233333333334</v>
       </c>
       <c r="H2">
-        <v>4.212794</v>
+        <v>1.34047</v>
       </c>
       <c r="I2">
-        <v>0.2511421176208566</v>
+        <v>0.1231980220232077</v>
       </c>
       <c r="J2">
-        <v>0.2511421176208566</v>
+        <v>0.1231980220232077</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,27 +558,27 @@
         <v>0.637506</v>
       </c>
       <c r="O2">
-        <v>0.4079957453644119</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.407995745364412</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.2984090501959999</v>
+        <v>0.09495085198</v>
       </c>
       <c r="R2">
-        <v>2.685681451764</v>
+        <v>0.8545576678200001</v>
       </c>
       <c r="S2">
-        <v>0.1024649154711182</v>
+        <v>0.1231980220232077</v>
       </c>
       <c r="T2">
-        <v>0.1024649154711182</v>
+        <v>0.1231980220232077</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.404264666666666</v>
+        <v>1.820248</v>
       </c>
       <c r="H3">
-        <v>4.212794</v>
+        <v>5.460744</v>
       </c>
       <c r="I3">
-        <v>0.2511421176208566</v>
+        <v>0.5018783408618613</v>
       </c>
       <c r="J3">
-        <v>0.2511421176208566</v>
+        <v>0.5018783408618613</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.3083416666666667</v>
+        <v>0.212502</v>
       </c>
       <c r="N3">
-        <v>0.925025</v>
+        <v>0.637506</v>
       </c>
       <c r="O3">
-        <v>0.592004254635588</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.592004254635588</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.4329933077611111</v>
+        <v>0.386806340496</v>
       </c>
       <c r="R3">
-        <v>3.896939769849999</v>
+        <v>3.481257064464</v>
       </c>
       <c r="S3">
-        <v>0.1486772021497384</v>
+        <v>0.5018783408618613</v>
       </c>
       <c r="T3">
-        <v>0.1486772021497384</v>
+        <v>0.5018783408618613</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.820248</v>
+        <v>1.359799666666667</v>
       </c>
       <c r="H4">
-        <v>5.460744</v>
+        <v>4.079399</v>
       </c>
       <c r="I4">
-        <v>0.3255375914287257</v>
+        <v>0.3749236371149309</v>
       </c>
       <c r="J4">
-        <v>0.3255375914287257</v>
+        <v>0.374923637114931</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,208 +682,22 @@
         <v>0.637506</v>
       </c>
       <c r="O4">
-        <v>0.4079957453644119</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.407995745364412</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.386806340496</v>
+        <v>0.288960148766</v>
       </c>
       <c r="R4">
-        <v>3.481257064464</v>
+        <v>2.600641338894</v>
       </c>
       <c r="S4">
-        <v>0.1328179522590983</v>
+        <v>0.3749236371149309</v>
       </c>
       <c r="T4">
-        <v>0.1328179522590984</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.820248</v>
-      </c>
-      <c r="H5">
-        <v>5.460744</v>
-      </c>
-      <c r="I5">
-        <v>0.3255375914287257</v>
-      </c>
-      <c r="J5">
-        <v>0.3255375914287257</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.3083416666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.925025</v>
-      </c>
-      <c r="O5">
-        <v>0.592004254635588</v>
-      </c>
-      <c r="P5">
-        <v>0.592004254635588</v>
-      </c>
-      <c r="Q5">
-        <v>0.5612583020666667</v>
-      </c>
-      <c r="R5">
-        <v>5.0513247186</v>
-      </c>
-      <c r="S5">
-        <v>0.1927196391696274</v>
-      </c>
-      <c r="T5">
-        <v>0.1927196391696274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2.367001333333334</v>
-      </c>
-      <c r="H6">
-        <v>7.101004000000001</v>
-      </c>
-      <c r="I6">
-        <v>0.4233202909504176</v>
-      </c>
-      <c r="J6">
-        <v>0.4233202909504176</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.212502</v>
-      </c>
-      <c r="N6">
-        <v>0.637506</v>
-      </c>
-      <c r="O6">
-        <v>0.4079957453644119</v>
-      </c>
-      <c r="P6">
-        <v>0.407995745364412</v>
-      </c>
-      <c r="Q6">
-        <v>0.502992517336</v>
-      </c>
-      <c r="R6">
-        <v>4.526932656024001</v>
-      </c>
-      <c r="S6">
-        <v>0.1727128776341953</v>
-      </c>
-      <c r="T6">
-        <v>0.1727128776341954</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.367001333333334</v>
-      </c>
-      <c r="H7">
-        <v>7.101004000000001</v>
-      </c>
-      <c r="I7">
-        <v>0.4233202909504176</v>
-      </c>
-      <c r="J7">
-        <v>0.4233202909504176</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.3083416666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.925025</v>
-      </c>
-      <c r="O7">
-        <v>0.592004254635588</v>
-      </c>
-      <c r="P7">
-        <v>0.592004254635588</v>
-      </c>
-      <c r="Q7">
-        <v>0.7298451361222223</v>
-      </c>
-      <c r="R7">
-        <v>6.568606225100001</v>
-      </c>
-      <c r="S7">
-        <v>0.2506074133162223</v>
-      </c>
-      <c r="T7">
-        <v>0.2506074133162223</v>
+        <v>0.374923637114931</v>
       </c>
     </row>
   </sheetData>
